--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,18 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20399"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{355C2506-8E50-4C0B-8FCD-0031D1AEBCF3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6626CE-2258-4217-B32D-8E1AF5D3F5A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10530" windowHeight="3105" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contacts" sheetId="1" r:id="rId1"/>
     <sheet name="Organization" sheetId="2" r:id="rId2"/>
     <sheet name="MultipleOrganizations" sheetId="3" r:id="rId3"/>
     <sheet name="Products" sheetId="4" r:id="rId4"/>
+    <sheet name="Leads" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A7:F14"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="61">
   <si>
     <t>TC_ID</t>
   </si>
@@ -146,34 +146,67 @@
     <t>ProdName</t>
   </si>
   <si>
-    <t>CreateProductWith</t>
-  </si>
-  <si>
     <t>TC_008</t>
   </si>
   <si>
     <t>TC_009</t>
   </si>
   <si>
-    <t>Sample_Product</t>
-  </si>
-  <si>
-    <t>Prod_Cat_</t>
-  </si>
-  <si>
     <t>Category</t>
   </si>
   <si>
-    <t>Software</t>
-  </si>
-  <si>
-    <t>CRM Applications</t>
-  </si>
-  <si>
     <t>Manufacturer</t>
   </si>
   <si>
     <t>LexPon Inc.</t>
+  </si>
+  <si>
+    <t>CreateProductWithCategory</t>
+  </si>
+  <si>
+    <t>HP245G</t>
+  </si>
+  <si>
+    <t>Hardware</t>
+  </si>
+  <si>
+    <t>LenovoT</t>
+  </si>
+  <si>
+    <t>CreateProductWithCategoryAndManufactr</t>
+  </si>
+  <si>
+    <t>TC_010</t>
+  </si>
+  <si>
+    <t>Rocky</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>BGL</t>
+  </si>
+  <si>
+    <t>CreateLead</t>
+  </si>
+  <si>
+    <t>CreateLeadWithCompany</t>
+  </si>
+  <si>
+    <t>CreateLeadWithCompanyAndLeadSource</t>
+  </si>
+  <si>
+    <t>Lead Source</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>Stephen</t>
+  </si>
+  <si>
+    <t>rahul</t>
   </si>
 </sst>
 </file>
@@ -236,13 +269,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,7 +570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -624,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9784420-39E9-4717-9C33-1C35E774A29E}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,7 +842,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,7 +874,7 @@
         <v>38</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -845,22 +890,22 @@
         <v>39</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -875,27 +920,146 @@
         <v>39</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>47</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38B47207-AC22-4DFF-B227-97504549B466}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="44" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
